--- a/medicine/Mort/Cimetière_de_Sarrià/Cimetière_de_Sarrià.xlsx
+++ b/medicine/Mort/Cimetière_de_Sarrià/Cimetière_de_Sarrià.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sarri%C3%A0</t>
+          <t>Cimetière_de_Sarrià</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Sarrià est le cimetière de l'ancien village de Sarrià, désormais rattaché à la ville de Barcelone. Le lieu est situé dans le quartier barcelonais de les Tres Torres[1], dans le district de Sarrià-Sant Gervasi[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Sarrià est le cimetière de l'ancien village de Sarrià, désormais rattaché à la ville de Barcelone. Le lieu est situé dans le quartier barcelonais de les Tres Torres, dans le district de Sarrià-Sant Gervasi.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sarri%C3%A0</t>
+          <t>Cimetière_de_Sarrià</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Sépultures de personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Miquel d'Esplugues (1870-1934), érudit religieux;
 Jaume Mercadé i Queralt, peintre;
 Emília Coranty Llurià (1862-1944), peintre, et son époux Francesc Guasch (1861-1923), également peintre;
 Carles Riba (1893-1959), poète et écrivain;
-Clementina Arderiu (1889-1976), poétesse (la sépulture est ornée d'un bas relief du sculpteur Joan Rebull[3]);
+Clementina Arderiu (1889-1976), poétesse (la sépulture est ornée d'un bas relief du sculpteur Joan Rebull);
 Nicolau Maria Rubió i Tudurí (1891-1981), urbaniste paysagiste de Barcelone.</t>
         </is>
       </c>
